--- a/Data/LCR Biological Data.xlsx
+++ b/Data/LCR Biological Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\BIOLOGICAL\Flyco\LCR\Data &amp; Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\BIOLOGICAL\Flyco\LCR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9141" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9275" uniqueCount="2230">
   <si>
     <t>ID</t>
   </si>
@@ -6252,6 +6252,477 @@
   </si>
   <si>
     <t>B01248</t>
+  </si>
+  <si>
+    <t>S08867</t>
+  </si>
+  <si>
+    <t>S08868</t>
+  </si>
+  <si>
+    <t>S08869</t>
+  </si>
+  <si>
+    <t>S08870</t>
+  </si>
+  <si>
+    <t>S08871</t>
+  </si>
+  <si>
+    <t>S08872</t>
+  </si>
+  <si>
+    <t>S08873</t>
+  </si>
+  <si>
+    <t>S08874</t>
+  </si>
+  <si>
+    <t>S08875</t>
+  </si>
+  <si>
+    <t>S08876</t>
+  </si>
+  <si>
+    <t>S08877</t>
+  </si>
+  <si>
+    <t>S08878</t>
+  </si>
+  <si>
+    <t>S08879</t>
+  </si>
+  <si>
+    <t>S08880</t>
+  </si>
+  <si>
+    <t>S08881</t>
+  </si>
+  <si>
+    <t>S08882</t>
+  </si>
+  <si>
+    <t>S08883</t>
+  </si>
+  <si>
+    <t>S08884</t>
+  </si>
+  <si>
+    <t>S08885</t>
+  </si>
+  <si>
+    <t>S08886</t>
+  </si>
+  <si>
+    <t>S08887</t>
+  </si>
+  <si>
+    <t>S08888</t>
+  </si>
+  <si>
+    <t>S08889</t>
+  </si>
+  <si>
+    <t>S08890</t>
+  </si>
+  <si>
+    <t>S08891</t>
+  </si>
+  <si>
+    <t>S08892</t>
+  </si>
+  <si>
+    <t>S08893</t>
+  </si>
+  <si>
+    <t>S08894</t>
+  </si>
+  <si>
+    <t>S08895</t>
+  </si>
+  <si>
+    <t>S08896</t>
+  </si>
+  <si>
+    <t>S08897</t>
+  </si>
+  <si>
+    <t>S08898</t>
+  </si>
+  <si>
+    <t>S08899</t>
+  </si>
+  <si>
+    <t>S08900</t>
+  </si>
+  <si>
+    <t>S08901</t>
+  </si>
+  <si>
+    <t>S08902</t>
+  </si>
+  <si>
+    <t>S08903</t>
+  </si>
+  <si>
+    <t>S08904</t>
+  </si>
+  <si>
+    <t>S08905</t>
+  </si>
+  <si>
+    <t>S08906</t>
+  </si>
+  <si>
+    <t>S08907</t>
+  </si>
+  <si>
+    <t>S08908</t>
+  </si>
+  <si>
+    <t>S08909</t>
+  </si>
+  <si>
+    <t>S08910</t>
+  </si>
+  <si>
+    <t>S08911</t>
+  </si>
+  <si>
+    <t>S08912</t>
+  </si>
+  <si>
+    <t>S08913</t>
+  </si>
+  <si>
+    <t>S08914</t>
+  </si>
+  <si>
+    <t>S08915</t>
+  </si>
+  <si>
+    <t>S08916</t>
+  </si>
+  <si>
+    <t>S08917</t>
+  </si>
+  <si>
+    <t>S08918</t>
+  </si>
+  <si>
+    <t>S08919</t>
+  </si>
+  <si>
+    <t>S08920</t>
+  </si>
+  <si>
+    <t>S08921</t>
+  </si>
+  <si>
+    <t>S08922</t>
+  </si>
+  <si>
+    <t>S08923</t>
+  </si>
+  <si>
+    <t>S08924</t>
+  </si>
+  <si>
+    <t>S08925</t>
+  </si>
+  <si>
+    <t>S08926</t>
+  </si>
+  <si>
+    <t>S08927</t>
+  </si>
+  <si>
+    <t>S08928</t>
+  </si>
+  <si>
+    <t>S08929</t>
+  </si>
+  <si>
+    <t>S08930</t>
+  </si>
+  <si>
+    <t>S08931</t>
+  </si>
+  <si>
+    <t>S08932</t>
+  </si>
+  <si>
+    <t>S08933</t>
+  </si>
+  <si>
+    <t>S08934</t>
+  </si>
+  <si>
+    <t>S08935</t>
+  </si>
+  <si>
+    <t>S08936</t>
+  </si>
+  <si>
+    <t>S08937</t>
+  </si>
+  <si>
+    <t>B01249</t>
+  </si>
+  <si>
+    <t>B01250</t>
+  </si>
+  <si>
+    <t>L07750</t>
+  </si>
+  <si>
+    <t>S08938</t>
+  </si>
+  <si>
+    <t>S08939</t>
+  </si>
+  <si>
+    <t>S08940</t>
+  </si>
+  <si>
+    <t>S08941</t>
+  </si>
+  <si>
+    <t>S08942</t>
+  </si>
+  <si>
+    <t>S08943</t>
+  </si>
+  <si>
+    <t>S08944</t>
+  </si>
+  <si>
+    <t>S08945</t>
+  </si>
+  <si>
+    <t>S08946</t>
+  </si>
+  <si>
+    <t>S08947</t>
+  </si>
+  <si>
+    <t>S08948</t>
+  </si>
+  <si>
+    <t>S08949</t>
+  </si>
+  <si>
+    <t>S08950</t>
+  </si>
+  <si>
+    <t>S08951</t>
+  </si>
+  <si>
+    <t>S08952</t>
+  </si>
+  <si>
+    <t>S08953</t>
+  </si>
+  <si>
+    <t>S08954</t>
+  </si>
+  <si>
+    <t>S08955</t>
+  </si>
+  <si>
+    <t>S08956</t>
+  </si>
+  <si>
+    <t>S08957</t>
+  </si>
+  <si>
+    <t>S08958</t>
+  </si>
+  <si>
+    <t>S08959</t>
+  </si>
+  <si>
+    <t>S08960</t>
+  </si>
+  <si>
+    <t>S08961</t>
+  </si>
+  <si>
+    <t>S08962</t>
+  </si>
+  <si>
+    <t>S08963</t>
+  </si>
+  <si>
+    <t>S08964</t>
+  </si>
+  <si>
+    <t>S08965</t>
+  </si>
+  <si>
+    <t>S08966</t>
+  </si>
+  <si>
+    <t>S08967</t>
+  </si>
+  <si>
+    <t>S08968</t>
+  </si>
+  <si>
+    <t>S08969</t>
+  </si>
+  <si>
+    <t>S08970</t>
+  </si>
+  <si>
+    <t>S08971</t>
+  </si>
+  <si>
+    <t>S08972</t>
+  </si>
+  <si>
+    <t>S08973</t>
+  </si>
+  <si>
+    <t>S08974</t>
+  </si>
+  <si>
+    <t>S08975</t>
+  </si>
+  <si>
+    <t>S08976</t>
+  </si>
+  <si>
+    <t>S08977</t>
+  </si>
+  <si>
+    <t>S08978</t>
+  </si>
+  <si>
+    <t>S08979</t>
+  </si>
+  <si>
+    <t>S08980</t>
+  </si>
+  <si>
+    <t>S08981</t>
+  </si>
+  <si>
+    <t>S08982</t>
+  </si>
+  <si>
+    <t>S08983</t>
+  </si>
+  <si>
+    <t>S08984</t>
+  </si>
+  <si>
+    <t>S08985</t>
+  </si>
+  <si>
+    <t>S08986</t>
+  </si>
+  <si>
+    <t>S08987</t>
+  </si>
+  <si>
+    <t>S08988</t>
+  </si>
+  <si>
+    <t>S08989</t>
+  </si>
+  <si>
+    <t>S08990</t>
+  </si>
+  <si>
+    <t>S08991</t>
+  </si>
+  <si>
+    <t>S08992</t>
+  </si>
+  <si>
+    <t>S08993</t>
+  </si>
+  <si>
+    <t>S08994</t>
+  </si>
+  <si>
+    <t>S08995</t>
+  </si>
+  <si>
+    <t>S08996</t>
+  </si>
+  <si>
+    <t>S08997</t>
+  </si>
+  <si>
+    <t>S08998</t>
+  </si>
+  <si>
+    <t>S08999</t>
+  </si>
+  <si>
+    <t>S09000</t>
+  </si>
+  <si>
+    <t>S09001</t>
+  </si>
+  <si>
+    <t>S09002</t>
+  </si>
+  <si>
+    <t>S09003</t>
+  </si>
+  <si>
+    <t>S09004</t>
+  </si>
+  <si>
+    <t>S09005</t>
+  </si>
+  <si>
+    <t>S09006</t>
+  </si>
+  <si>
+    <t>S09007</t>
+  </si>
+  <si>
+    <t>S09008</t>
+  </si>
+  <si>
+    <t>S09009</t>
+  </si>
+  <si>
+    <t>B01251</t>
+  </si>
+  <si>
+    <t>B01252</t>
+  </si>
+  <si>
+    <t>B01253</t>
+  </si>
+  <si>
+    <t>L07751</t>
+  </si>
+  <si>
+    <t>L07752</t>
+  </si>
+  <si>
+    <t>L07753</t>
+  </si>
+  <si>
+    <t>Blue Spring. All habitats. 5 min kick, 5 min pick with 2 people. No bugs, so no sample bottle retained.</t>
+  </si>
+  <si>
+    <t>Chute Camp. 5 min kick, 25 min pick with 2 people.</t>
+  </si>
+  <si>
+    <t>At island just upstream of Salt Camp. 5 min kick, 5 min pick with 2 people.</t>
+  </si>
+  <si>
+    <t>Coyote Camp. Removal time estimated. Took down early because boat was sinking. Lost 3 traps from this boat (not currently sure which ones).</t>
+  </si>
+  <si>
+    <t>Boulders Camp. Datasheet left in camp. Need to pull in Sept.</t>
   </si>
 </sst>
 </file>
@@ -6641,7 +7112,7 @@
   <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -29247,8 +29718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31589,11 +32060,15 @@
       <c r="F76" s="12">
         <v>42508</v>
       </c>
-      <c r="G76" s="26"/>
+      <c r="G76" s="26">
+        <v>0.82916666666666661</v>
+      </c>
       <c r="H76" s="12">
         <v>42508</v>
       </c>
-      <c r="I76" s="18"/>
+      <c r="I76" s="18">
+        <v>0.86736111111111114</v>
+      </c>
       <c r="J76" s="13" t="s">
         <v>236</v>
       </c>
@@ -33480,31 +33955,29 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -33523,33 +33996,21 @@
       <c r="F1" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>2071</v>
       </c>
       <c r="B2" s="14">
@@ -33564,40 +34025,22 @@
       <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>42545</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="13" t="str">
-        <f>CONCATENATE("S0",MID(A74,2,5)+1)</f>
-        <v>S08938</v>
-      </c>
-      <c r="I2" s="14">
-        <v>10.4</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" s="12">
-        <f>$F$2</f>
-        <v>42545</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="str">
-        <f>CONCATENATE("S0",MID(A2,2,5)+1)</f>
-        <v>S08867</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2073</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -33612,40 +34055,21 @@
         <v>9</v>
       </c>
       <c r="F3" s="12">
-        <f>$F$2</f>
         <v>42545</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="H3" s="13" t="str">
-        <f t="shared" ref="H3:H49" si="0">CONCATENATE("S0",MID(H2,2,5)+1)</f>
-        <v>S08939</v>
-      </c>
-      <c r="I3" s="14">
-        <v>10.4</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="12">
-        <f t="shared" ref="M3:M49" si="1">$F$2</f>
-        <v>42545</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="str">
-        <f t="shared" ref="A4:A67" si="2">CONCATENATE("S0",MID(A3,2,5)+1)</f>
-        <v>S08868</v>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>2074</v>
       </c>
       <c r="B4" s="14">
         <v>0</v>
@@ -33660,40 +34084,21 @@
         <v>9</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F67" si="3">$F$2</f>
         <v>42545</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08940</v>
-      </c>
-      <c r="I4" s="14">
-        <v>10.4</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08869</v>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>2075</v>
       </c>
       <c r="B5" s="14">
         <v>0</v>
@@ -33708,40 +34113,21 @@
         <v>9</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="H5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08941</v>
-      </c>
-      <c r="I5" s="14">
-        <v>10.4</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08870</v>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>2076</v>
       </c>
       <c r="B6" s="14">
         <v>0</v>
@@ -33756,38 +34142,21 @@
         <v>9</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08942</v>
-      </c>
-      <c r="I6" s="14">
-        <v>11</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08871</v>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>2077</v>
       </c>
       <c r="B7" s="14">
         <v>0</v>
@@ -33802,38 +34171,21 @@
         <v>9</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08943</v>
-      </c>
-      <c r="I7" s="14">
-        <v>11</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08872</v>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>2078</v>
       </c>
       <c r="B8" s="14">
         <v>0</v>
@@ -33848,38 +34200,21 @@
         <v>9</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08944</v>
-      </c>
-      <c r="I8" s="14">
-        <v>11</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08873</v>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2079</v>
       </c>
       <c r="B9" s="14">
         <v>0</v>
@@ -33894,38 +34229,21 @@
         <v>9</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08945</v>
-      </c>
-      <c r="I9" s="14">
-        <v>11</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08874</v>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>2080</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
@@ -33940,38 +34258,21 @@
         <v>9</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="H10" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>1587</v>
       </c>
-      <c r="H10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08946</v>
-      </c>
-      <c r="I10" s="14">
-        <v>12</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08875</v>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>2081</v>
       </c>
       <c r="B11" s="14">
         <v>0</v>
@@ -33986,38 +34287,21 @@
         <v>9</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>1587</v>
       </c>
-      <c r="H11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08947</v>
-      </c>
-      <c r="I11" s="14">
-        <v>12</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08876</v>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>2082</v>
       </c>
       <c r="B12" s="14">
         <v>0</v>
@@ -34032,38 +34316,21 @@
         <v>9</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>1587</v>
       </c>
-      <c r="H12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08948</v>
-      </c>
-      <c r="I12" s="14">
-        <v>12</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08877</v>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>2083</v>
       </c>
       <c r="B13" s="14">
         <v>0</v>
@@ -34078,38 +34345,21 @@
         <v>9</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H13" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>1587</v>
       </c>
-      <c r="H13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08949</v>
-      </c>
-      <c r="I13" s="14">
-        <v>12</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08878</v>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>2084</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
@@ -34124,36 +34374,18 @@
         <v>179</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08950</v>
-      </c>
-      <c r="I14" s="14">
-        <v>13</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08879</v>
+      <c r="H14" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>2085</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
@@ -34168,36 +34400,18 @@
         <v>179</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08951</v>
-      </c>
-      <c r="I15" s="14">
-        <v>13</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08880</v>
+      <c r="H15" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>2086</v>
       </c>
       <c r="B16" s="14">
         <v>1</v>
@@ -34212,36 +34426,18 @@
         <v>179</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08952</v>
-      </c>
-      <c r="I16" s="14">
-        <v>13</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08881</v>
+      <c r="H16" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>2087</v>
       </c>
       <c r="B17" s="14">
         <v>1</v>
@@ -34256,36 +34452,18 @@
         <v>179</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08953</v>
-      </c>
-      <c r="I17" s="14">
-        <v>13</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08882</v>
+      <c r="H17" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>2088</v>
       </c>
       <c r="B18" s="14">
         <v>1.95</v>
@@ -34300,38 +34478,21 @@
         <v>179</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="H18" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08954</v>
-      </c>
-      <c r="I18" s="14">
-        <v>14</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08883</v>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>2089</v>
       </c>
       <c r="B19" s="14">
         <v>1.95</v>
@@ -34346,38 +34507,21 @@
         <v>179</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="H19" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08955</v>
-      </c>
-      <c r="I19" s="14">
-        <v>14</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08884</v>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>2090</v>
       </c>
       <c r="B20" s="14">
         <v>1.95</v>
@@ -34392,38 +34536,21 @@
         <v>179</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="H20" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08956</v>
-      </c>
-      <c r="I20" s="14">
-        <v>14</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08885</v>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>2091</v>
       </c>
       <c r="B21" s="14">
         <v>1.95</v>
@@ -34438,38 +34565,21 @@
         <v>179</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="H21" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08957</v>
-      </c>
-      <c r="I21" s="14">
-        <v>14</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08886</v>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>2092</v>
       </c>
       <c r="B22" s="14">
         <v>2.9</v>
@@ -34484,38 +34594,21 @@
         <v>179</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08958</v>
-      </c>
-      <c r="I22" s="14">
-        <v>15</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08887</v>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>2093</v>
       </c>
       <c r="B23" s="14">
         <v>2.9</v>
@@ -34530,38 +34623,21 @@
         <v>179</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08959</v>
-      </c>
-      <c r="I23" s="14">
-        <v>15</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08888</v>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>2094</v>
       </c>
       <c r="B24" s="14">
         <v>2.9</v>
@@ -34576,38 +34652,21 @@
         <v>179</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="H24" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08960</v>
-      </c>
-      <c r="I24" s="14">
-        <v>15</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08889</v>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>2095</v>
       </c>
       <c r="B25" s="14">
         <v>2.9</v>
@@ -34622,38 +34681,21 @@
         <v>179</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="H25" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08961</v>
-      </c>
-      <c r="I25" s="14">
-        <v>15</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08890</v>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>2096</v>
       </c>
       <c r="B26" s="14">
         <v>4</v>
@@ -34668,38 +34710,21 @@
         <v>179</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="H26" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="H26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08962</v>
-      </c>
-      <c r="I26" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M26" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08891</v>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>2097</v>
       </c>
       <c r="B27" s="14">
         <v>4</v>
@@ -34714,38 +34739,21 @@
         <v>179</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="H27" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08963</v>
-      </c>
-      <c r="I27" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M27" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08892</v>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>2098</v>
       </c>
       <c r="B28" s="14">
         <v>4</v>
@@ -34760,38 +34768,21 @@
         <v>179</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="H28" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08964</v>
-      </c>
-      <c r="I28" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M28" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08893</v>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>2099</v>
       </c>
       <c r="B29" s="14">
         <v>4</v>
@@ -34806,38 +34797,21 @@
         <v>179</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="H29" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="H29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08965</v>
-      </c>
-      <c r="I29" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M29" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08894</v>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>2100</v>
       </c>
       <c r="B30" s="14">
         <v>5</v>
@@ -34852,38 +34826,21 @@
         <v>9</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="H30" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08966</v>
-      </c>
-      <c r="I30" s="14">
-        <v>17</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M30" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08895</v>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>2101</v>
       </c>
       <c r="B31" s="14">
         <v>5</v>
@@ -34898,38 +34855,21 @@
         <v>9</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="H31" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08967</v>
-      </c>
-      <c r="I31" s="14">
-        <v>17</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M31" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08896</v>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>2102</v>
       </c>
       <c r="B32" s="14">
         <v>5</v>
@@ -34944,38 +34884,21 @@
         <v>9</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="H32" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H32" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08968</v>
-      </c>
-      <c r="I32" s="14">
-        <v>17</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M32" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08897</v>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>2103</v>
       </c>
       <c r="B33" s="14">
         <v>5</v>
@@ -34990,38 +34913,21 @@
         <v>9</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="H33" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="J33" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H33" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08969</v>
-      </c>
-      <c r="I33" s="14">
-        <v>17</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M33" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08898</v>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>2104</v>
       </c>
       <c r="B34" s="14">
         <v>6</v>
@@ -35036,38 +34942,21 @@
         <v>9</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="H34" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H34" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08970</v>
-      </c>
-      <c r="I34" s="14">
-        <v>18</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M34" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08899</v>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>2105</v>
       </c>
       <c r="B35" s="14">
         <v>6</v>
@@ -35082,38 +34971,21 @@
         <v>9</v>
       </c>
       <c r="F35" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="H35" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I35" s="18">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J35" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08971</v>
-      </c>
-      <c r="I35" s="14">
-        <v>18</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M35" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08900</v>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>2106</v>
       </c>
       <c r="B36" s="14">
         <v>6</v>
@@ -35128,38 +35000,21 @@
         <v>9</v>
       </c>
       <c r="F36" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="H36" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H36" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08972</v>
-      </c>
-      <c r="I36" s="14">
-        <v>18</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M36" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08901</v>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>2107</v>
       </c>
       <c r="B37" s="14">
         <v>6</v>
@@ -35174,38 +35029,21 @@
         <v>9</v>
       </c>
       <c r="F37" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="H37" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I37" s="18">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J37" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H37" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08973</v>
-      </c>
-      <c r="I37" s="14">
-        <v>18</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M37" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08902</v>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>2108</v>
       </c>
       <c r="B38" s="14">
         <v>7</v>
@@ -35220,38 +35058,21 @@
         <v>9</v>
       </c>
       <c r="F38" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="H38" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I38" s="18">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="J38" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="H38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08974</v>
-      </c>
-      <c r="I38" s="14">
-        <v>19</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08903</v>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>2109</v>
       </c>
       <c r="B39" s="14">
         <v>7</v>
@@ -35266,38 +35087,21 @@
         <v>9</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="H39" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I39" s="18">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="H39" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08975</v>
-      </c>
-      <c r="I39" s="14">
-        <v>19</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M39" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08904</v>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>2110</v>
       </c>
       <c r="B40" s="14">
         <v>7</v>
@@ -35312,38 +35116,21 @@
         <v>9</v>
       </c>
       <c r="F40" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="H40" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I40" s="18">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="J40" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="H40" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08976</v>
-      </c>
-      <c r="I40" s="14">
-        <v>19</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M40" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08905</v>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>2111</v>
       </c>
       <c r="B41" s="14">
         <v>7</v>
@@ -35358,38 +35145,21 @@
         <v>9</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="H41" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I41" s="18">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="J41" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="H41" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08977</v>
-      </c>
-      <c r="I41" s="14">
-        <v>19</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08906</v>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>2112</v>
       </c>
       <c r="B42" s="14">
         <v>8</v>
@@ -35404,38 +35174,21 @@
         <v>9</v>
       </c>
       <c r="F42" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="H42" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I42" s="18">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="J42" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="H42" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08978</v>
-      </c>
-      <c r="I42" s="14">
-        <v>20</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M42" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08907</v>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>2113</v>
       </c>
       <c r="B43" s="14">
         <v>8</v>
@@ -35450,38 +35203,21 @@
         <v>9</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="H43" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I43" s="18">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="J43" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="H43" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08979</v>
-      </c>
-      <c r="I43" s="14">
-        <v>20</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M43" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08908</v>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>2114</v>
       </c>
       <c r="B44" s="14">
         <v>8</v>
@@ -35496,38 +35232,21 @@
         <v>9</v>
       </c>
       <c r="F44" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="H44" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I44" s="18">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="H44" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08980</v>
-      </c>
-      <c r="I44" s="14">
-        <v>20</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M44" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08909</v>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>2115</v>
       </c>
       <c r="B45" s="14">
         <v>8</v>
@@ -35542,38 +35261,21 @@
         <v>9</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="H45" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I45" s="18">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="J45" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="H45" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08981</v>
-      </c>
-      <c r="I45" s="14">
-        <v>20</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M45" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08910</v>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>2116</v>
       </c>
       <c r="B46" s="14">
         <v>9</v>
@@ -35588,40 +35290,21 @@
         <v>9</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="H46" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I46" s="18">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="J46" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="H46" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08982</v>
-      </c>
-      <c r="I46" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M46" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08911</v>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>2117</v>
       </c>
       <c r="B47" s="14">
         <v>9</v>
@@ -35636,40 +35319,21 @@
         <v>9</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="H47" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I47" s="18">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="J47" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="H47" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08983</v>
-      </c>
-      <c r="I47" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M47" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N47" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08912</v>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>2118</v>
       </c>
       <c r="B48" s="14">
         <v>9</v>
@@ -35684,40 +35348,21 @@
         <v>9</v>
       </c>
       <c r="F48" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="H48" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I48" s="18">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="J48" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="H48" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08984</v>
-      </c>
-      <c r="I48" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M48" s="12">
-        <f t="shared" si="1"/>
-        <v>42545</v>
-      </c>
-      <c r="N48" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08913</v>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>2119</v>
       </c>
       <c r="B49" s="14">
         <v>9</v>
@@ -35732,84 +35377,47 @@
         <v>9</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="H49" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I49" s="18">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="J49" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="H49" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>S08985</v>
-      </c>
-      <c r="I49" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M49" s="12">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B50" s="14">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F50" s="12">
         <v>42545</v>
       </c>
-      <c r="N49" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M50" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="N50" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="str">
-        <f>CONCATENATE("S0",MID(A49,2,5)+1)</f>
-        <v>S08914</v>
+      <c r="H50" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I50" s="18">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>2121</v>
       </c>
       <c r="B51" s="14">
         <v>0</v>
@@ -35820,40 +35428,22 @@
       <c r="D51" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E51" s="13"/>
       <c r="F51" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="H51" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I51" s="18">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="J51" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="13" t="str">
-        <f>CONCATENATE("S0",MID(H49,2,5)+1)</f>
-        <v>S08986</v>
-      </c>
-      <c r="I51" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="12">
-        <f>$F$2</f>
-        <v>42545</v>
-      </c>
-      <c r="N51" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08915</v>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>2122</v>
       </c>
       <c r="B52" s="14">
         <v>0</v>
@@ -35864,40 +35454,22 @@
       <c r="D52" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E52" s="13"/>
       <c r="F52" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="H52" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I52" s="18">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="J52" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H52" s="13" t="str">
-        <f t="shared" ref="H52:H74" si="4">CONCATENATE("S0",MID(H51,2,5)+1)</f>
-        <v>S08987</v>
-      </c>
-      <c r="I52" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="12">
-        <f t="shared" ref="M52:M74" si="5">$F$2</f>
-        <v>42545</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08916</v>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>2123</v>
       </c>
       <c r="B53" s="14">
         <v>0</v>
@@ -35908,40 +35480,22 @@
       <c r="D53" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E53" s="13"/>
       <c r="F53" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="H53" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I53" s="18">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="J53" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H53" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08988</v>
-      </c>
-      <c r="I53" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L53" s="13"/>
-      <c r="M53" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N53" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08917</v>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>2124</v>
       </c>
       <c r="B54" s="14">
         <v>0</v>
@@ -35950,42 +35504,24 @@
         <v>13</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="E54" s="13"/>
+        <v>919</v>
+      </c>
       <c r="F54" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="H54" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I54" s="18">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="J54" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H54" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08989</v>
-      </c>
-      <c r="I54" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L54" s="13"/>
-      <c r="M54" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N54" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08918</v>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>2125</v>
       </c>
       <c r="B55" s="14">
         <v>0</v>
@@ -35996,40 +35532,22 @@
       <c r="D55" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E55" s="13"/>
       <c r="F55" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="H55" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I55" s="18">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="J55" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H55" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08990</v>
-      </c>
-      <c r="I55" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N55" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08919</v>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>2126</v>
       </c>
       <c r="B56" s="14">
         <v>0</v>
@@ -36040,40 +35558,22 @@
       <c r="D56" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E56" s="13"/>
       <c r="F56" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="H56" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I56" s="18">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="J56" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H56" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08991</v>
-      </c>
-      <c r="I56" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N56" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08920</v>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>2127</v>
       </c>
       <c r="B57" s="14">
         <v>0</v>
@@ -36084,84 +35584,48 @@
       <c r="D57" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E57" s="13"/>
       <c r="F57" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="H57" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I57" s="18">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="J57" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H57" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08992</v>
-      </c>
-      <c r="I57" s="14">
-        <v>20.75</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N57" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08921</v>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>2128</v>
       </c>
       <c r="B58" s="14">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="E58" s="13"/>
+        <v>918</v>
+      </c>
       <c r="F58" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G58" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H58" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08993</v>
-      </c>
-      <c r="I58" s="14">
-        <v>20.75</v>
+      <c r="H58" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I58" s="18">
+        <v>0.41180555555555554</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N58" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08922</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>2129</v>
       </c>
       <c r="B59" s="14">
         <v>1.95</v>
@@ -36172,40 +35636,22 @@
       <c r="D59" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E59" s="13"/>
       <c r="F59" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="H59" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I59" s="18">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="J59" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H59" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08994</v>
-      </c>
-      <c r="I59" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08923</v>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>2130</v>
       </c>
       <c r="B60" s="14">
         <v>1.95</v>
@@ -36216,40 +35662,22 @@
       <c r="D60" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E60" s="13"/>
       <c r="F60" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="H60" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I60" s="18">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="J60" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H60" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08995</v>
-      </c>
-      <c r="I60" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L60" s="13"/>
-      <c r="M60" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N60" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08924</v>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>2131</v>
       </c>
       <c r="B61" s="14">
         <v>1.95</v>
@@ -36260,40 +35688,22 @@
       <c r="D61" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E61" s="13"/>
       <c r="F61" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="H61" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I61" s="18">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="J61" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H61" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08996</v>
-      </c>
-      <c r="I61" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L61" s="13"/>
-      <c r="M61" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N61" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08925</v>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>2132</v>
       </c>
       <c r="B62" s="14">
         <v>1.95</v>
@@ -36302,42 +35712,24 @@
         <v>13</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="E62" s="13"/>
+        <v>919</v>
+      </c>
       <c r="F62" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="H62" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I62" s="18">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="J62" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H62" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08997</v>
-      </c>
-      <c r="I62" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L62" s="13"/>
-      <c r="M62" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08926</v>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>2133</v>
       </c>
       <c r="B63" s="14">
         <v>1.95</v>
@@ -36348,40 +35740,22 @@
       <c r="D63" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E63" s="13"/>
       <c r="F63" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="H63" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I63" s="18">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="J63" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H63" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08998</v>
-      </c>
-      <c r="I63" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08927</v>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>2134</v>
       </c>
       <c r="B64" s="14">
         <v>1.95</v>
@@ -36392,40 +35766,22 @@
       <c r="D64" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E64" s="13"/>
       <c r="F64" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="H64" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I64" s="18">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="J64" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H64" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S08999</v>
-      </c>
-      <c r="I64" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L64" s="13"/>
-      <c r="M64" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N64" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08928</v>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>2135</v>
       </c>
       <c r="B65" s="14">
         <v>1.95</v>
@@ -36436,84 +35792,48 @@
       <c r="D65" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E65" s="13"/>
       <c r="F65" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="H65" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I65" s="18">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="J65" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H65" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09000</v>
-      </c>
-      <c r="I65" s="14">
-        <v>16.2</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N65" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08929</v>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>2136</v>
       </c>
       <c r="B66" s="14">
-        <v>1.95</v>
+        <v>9</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="E66" s="13"/>
+        <v>918</v>
+      </c>
       <c r="F66" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G66" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="H66" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09001</v>
-      </c>
-      <c r="I66" s="14">
-        <v>16.2</v>
+      <c r="H66" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I66" s="18">
+        <v>0.75</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L66" s="13"/>
-      <c r="M66" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N66" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>S08930</v>
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>2137</v>
       </c>
       <c r="B67" s="14">
         <v>9</v>
@@ -36524,40 +35844,22 @@
       <c r="D67" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E67" s="13"/>
       <c r="F67" s="12">
-        <f t="shared" si="3"/>
         <v>42545</v>
       </c>
-      <c r="G67" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H67" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09002</v>
-      </c>
-      <c r="I67" s="14">
-        <v>10.5</v>
+      <c r="H67" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I67" s="18">
+        <v>0.75</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N67" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="str">
-        <f t="shared" ref="A68:A74" si="6">CONCATENATE("S0",MID(A67,2,5)+1)</f>
-        <v>S08931</v>
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>2138</v>
       </c>
       <c r="B68" s="14">
         <v>9</v>
@@ -36568,40 +35870,22 @@
       <c r="D68" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E68" s="13"/>
       <c r="F68" s="12">
-        <f t="shared" ref="F68:F74" si="7">$F$2</f>
         <v>42545</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H68" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09003</v>
-      </c>
-      <c r="I68" s="14">
-        <v>10.5</v>
+      <c r="H68" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I68" s="18">
+        <v>0.75</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N68" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>S08932</v>
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>2139</v>
       </c>
       <c r="B69" s="14">
         <v>9</v>
@@ -36612,40 +35896,22 @@
       <c r="D69" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E69" s="13"/>
       <c r="F69" s="12">
-        <f t="shared" si="7"/>
         <v>42545</v>
       </c>
-      <c r="G69" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H69" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09004</v>
-      </c>
-      <c r="I69" s="14">
-        <v>10.5</v>
+      <c r="H69" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I69" s="18">
+        <v>0.75</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N69" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>S08933</v>
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>2140</v>
       </c>
       <c r="B70" s="14">
         <v>9</v>
@@ -36654,42 +35920,24 @@
         <v>13</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="E70" s="13"/>
+        <v>919</v>
+      </c>
       <c r="F70" s="12">
-        <f t="shared" si="7"/>
         <v>42545</v>
       </c>
-      <c r="G70" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H70" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09005</v>
-      </c>
-      <c r="I70" s="14">
-        <v>10.5</v>
+      <c r="H70" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I70" s="18">
+        <v>0.75</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L70" s="13"/>
-      <c r="M70" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N70" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>S08934</v>
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>2141</v>
       </c>
       <c r="B71" s="14">
         <v>9</v>
@@ -36700,40 +35948,22 @@
       <c r="D71" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E71" s="13"/>
       <c r="F71" s="12">
-        <f t="shared" si="7"/>
         <v>42545</v>
       </c>
-      <c r="G71" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H71" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09006</v>
-      </c>
-      <c r="I71" s="14">
-        <v>10.5</v>
+      <c r="H71" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I71" s="18">
+        <v>0.75</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L71" s="13"/>
-      <c r="M71" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N71" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>S08935</v>
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>2142</v>
       </c>
       <c r="B72" s="14">
         <v>9</v>
@@ -36744,40 +35974,22 @@
       <c r="D72" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E72" s="13"/>
       <c r="F72" s="12">
-        <f t="shared" si="7"/>
         <v>42545</v>
       </c>
-      <c r="G72" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H72" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09007</v>
-      </c>
-      <c r="I72" s="14">
-        <v>10.5</v>
+      <c r="H72" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I72" s="18">
+        <v>0.75</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L72" s="13"/>
-      <c r="M72" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N72" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>S08936</v>
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>2143</v>
       </c>
       <c r="B73" s="14">
         <v>9</v>
@@ -36788,348 +36000,2394 @@
       <c r="D73" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E73" s="13"/>
       <c r="F73" s="12">
-        <f t="shared" si="7"/>
         <v>42545</v>
       </c>
-      <c r="G73" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H73" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09008</v>
-      </c>
-      <c r="I73" s="14">
-        <v>10.5</v>
+      <c r="H73" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I73" s="18">
+        <v>0.75</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L73" s="13"/>
-      <c r="M73" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N73" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>S08937</v>
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>2072</v>
       </c>
       <c r="B74" s="14">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="E74" s="13"/>
+        <v>17</v>
+      </c>
       <c r="F74" s="12">
-        <f t="shared" si="7"/>
-        <v>42545</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H74" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S09009</v>
-      </c>
-      <c r="I74" s="14">
-        <v>10.5</v>
+        <v>42546</v>
+      </c>
+      <c r="H74" s="12">
+        <v>42546</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K74" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="L74" s="13"/>
-      <c r="M74" s="12">
-        <f t="shared" si="5"/>
-        <v>42545</v>
-      </c>
-      <c r="N74" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>2072</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>2144</v>
       </c>
       <c r="B75" s="14">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
       <c r="F75" s="12">
-        <f>$F$2+1</f>
         <v>42546</v>
       </c>
-      <c r="G75" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="H75" s="13" t="str">
-        <f>CONCATENATE("B0",MID(A77,2,5)+1)</f>
-        <v>B01251</v>
-      </c>
-      <c r="I75" s="14">
-        <v>20.75</v>
+      <c r="H75" s="12">
+        <v>42546</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="12">
-        <f>$F$2</f>
-        <v>42545</v>
-      </c>
-      <c r="N75" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="str">
-        <f>CONCATENATE("B0",MID(A75,2,5)+1)</f>
-        <v>B01249</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>2145</v>
       </c>
       <c r="B76" s="14">
-        <v>1.95</v>
+        <v>9</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
       <c r="F76" s="12">
-        <f t="shared" ref="F76:F77" si="8">$F$2+1</f>
         <v>42546</v>
       </c>
-      <c r="G76" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="H76" s="13" t="str">
-        <f>CONCATENATE("B0",MID(H75,2,5)+1)</f>
-        <v>B01252</v>
-      </c>
-      <c r="I76" s="14">
-        <v>16.2</v>
+      <c r="H76" s="12">
+        <v>42546</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="12">
-        <f t="shared" ref="M76:M77" si="9">$F$2+1</f>
-        <v>42546</v>
-      </c>
-      <c r="N76" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="str">
-        <f>CONCATENATE("B0",MID(A76,2,5)+1)</f>
-        <v>B01250</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>2070</v>
       </c>
       <c r="B77" s="14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F77" s="12">
-        <f t="shared" si="8"/>
-        <v>42546</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="H77" s="13" t="str">
-        <f>CONCATENATE("B0",MID(H76,2,5)+1)</f>
-        <v>B01253</v>
-      </c>
-      <c r="I77" s="14">
-        <v>10.5</v>
+        <v>42545</v>
+      </c>
+      <c r="H77" s="12">
+        <v>42545</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="12">
-        <f t="shared" si="9"/>
-        <v>42546</v>
-      </c>
-      <c r="N77" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>2070</v>
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>2146</v>
       </c>
       <c r="B78" s="14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="F78" s="12">
-        <f>$F$2</f>
+        <v>42546</v>
+      </c>
+      <c r="G78" s="18">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="H78" s="12">
+        <v>42546</v>
+      </c>
+      <c r="I78" s="18">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B79" s="14">
+        <v>10.4</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" s="12">
         <v>42545</v>
       </c>
-      <c r="G78" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H78" s="13" t="str">
-        <f>CONCATENATE("L0",MID(A79,2,5)+1)</f>
-        <v>L07751</v>
-      </c>
-      <c r="I78" s="14">
+      <c r="G79" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H79" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I79" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B80" s="14">
+        <v>10.4</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G80" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H80" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I80" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B81" s="14">
+        <v>10.4</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F81" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G81" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H81" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I81" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B82" s="14">
+        <v>10.4</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F82" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G82" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H82" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I82" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B83" s="14">
+        <v>11</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G83" s="18">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="H83" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I83" s="18">
+        <v>0.2673611111111111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B84" s="14">
+        <v>11</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F84" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G84" s="18">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="H84" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I84" s="18">
+        <v>0.2673611111111111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B85" s="14">
+        <v>11</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G85" s="18">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="H85" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I85" s="18">
+        <v>0.2673611111111111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B86" s="14">
+        <v>11</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G86" s="18">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="H86" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I86" s="18">
+        <v>0.2673611111111111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B87" s="14">
+        <v>12</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F87" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G87" s="18">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="H87" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I87" s="18">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B88" s="14">
+        <v>12</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G88" s="18">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="H88" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I88" s="18">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B89" s="14">
+        <v>12</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F89" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G89" s="18">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="H89" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I89" s="18">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B90" s="14">
+        <v>12</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F90" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G90" s="18">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="H90" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I90" s="18">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B91" s="14">
+        <v>13</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G91" s="18">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H91" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I91" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B92" s="14">
+        <v>13</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F92" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G92" s="18">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H92" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I92" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B93" s="14">
+        <v>13</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F93" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G93" s="18">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H93" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I93" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B94" s="14">
+        <v>13</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F94" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G94" s="18">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H94" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I94" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B95" s="14">
+        <v>14</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G95" s="18">
+        <v>0.46875</v>
+      </c>
+      <c r="H95" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I95" s="18">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B96" s="14">
+        <v>14</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G96" s="18">
+        <v>0.46875</v>
+      </c>
+      <c r="H96" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I96" s="18">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B97" s="14">
+        <v>14</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G97" s="18">
+        <v>0.46875</v>
+      </c>
+      <c r="H97" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I97" s="18">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B98" s="14">
+        <v>14</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G98" s="18">
+        <v>0.46875</v>
+      </c>
+      <c r="H98" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I98" s="18">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B99" s="14">
+        <v>15</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G99" s="18">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H99" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I99" s="18">
+        <v>0.3347222222222222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B100" s="14">
+        <v>15</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G100" s="18">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H100" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I100" s="18">
+        <v>0.3347222222222222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B101" s="14">
+        <v>15</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G101" s="18">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H101" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I101" s="18">
+        <v>0.3347222222222222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B102" s="14">
+        <v>15</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G102" s="18">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H102" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I102" s="18">
+        <v>0.3347222222222222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B103" s="14">
         <v>16.2</v>
       </c>
-      <c r="J78" s="13" t="s">
+      <c r="C103" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F103" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G103" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H103" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I103" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B104" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F104" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G104" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H104" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I104" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B105" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F105" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G105" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H105" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I105" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B106" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F106" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G106" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H106" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I106" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B107" s="14">
+        <v>17</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F107" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G107" s="18">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="H107" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I107" s="18">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B108" s="14">
+        <v>17</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F108" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G108" s="18">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="H108" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I108" s="18">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B109" s="14">
+        <v>17</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F109" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G109" s="18">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="H109" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I109" s="18">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B110" s="14">
+        <v>17</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F110" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G110" s="18">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="H110" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I110" s="18">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B111" s="14">
+        <v>18</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F111" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G111" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H111" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I111" s="18">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B112" s="14">
+        <v>18</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F112" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G112" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H112" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I112" s="18">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B113" s="14">
+        <v>18</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F113" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G113" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H113" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I113" s="18">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B114" s="14">
+        <v>18</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F114" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G114" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H114" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I114" s="18">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B115" s="14">
+        <v>19</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G115" s="18">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="H115" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I115" s="18">
+        <v>0.4055555555555555</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B116" s="14">
+        <v>19</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G116" s="18">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="H116" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I116" s="18">
+        <v>0.4055555555555555</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B117" s="14">
+        <v>19</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G117" s="18">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="H117" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I117" s="18">
+        <v>0.4055555555555555</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B118" s="14">
+        <v>19</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G118" s="18">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="H118" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I118" s="18">
+        <v>0.4055555555555555</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B119" s="14">
+        <v>20</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F119" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G119" s="18">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="H119" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I119" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B120" s="14">
+        <v>20</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F120" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G120" s="18">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="H120" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I120" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B121" s="14">
+        <v>20</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F121" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G121" s="18">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="H121" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I121" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B122" s="14">
+        <v>20</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F122" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G122" s="18">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="H122" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I122" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B123" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F123" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G123" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H123" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I123" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B124" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F124" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G124" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H124" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I124" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B125" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F125" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G125" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H125" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I125" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B126" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F126" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G126" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H126" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I126" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B127" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="E127" s="13"/>
+      <c r="F127" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G127" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H127" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I127" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J127" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B128" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F128" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G128" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H128" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I128" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B129" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F129" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G129" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H129" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I129" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J129" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B130" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F130" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G130" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H130" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I130" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B131" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F131" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G131" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H131" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I131" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J131" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B132" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F132" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G132" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H132" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I132" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B133" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F133" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G133" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H133" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I133" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B134" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F134" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G134" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="H134" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I134" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J134" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B135" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F135" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G135" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H135" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I135" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B136" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F136" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G136" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H136" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I136" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B137" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F137" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G137" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H137" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I137" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J137" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B138" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F138" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G138" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H138" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I138" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B139" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F139" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G139" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H139" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I139" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J139" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B140" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F140" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G140" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H140" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I140" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B141" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F141" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G141" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H141" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I141" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J141" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B142" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F142" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G142" s="18">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H142" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I142" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B143" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F143" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G143" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H143" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I143" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J143" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B144" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F144" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G144" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H144" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I144" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J144" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B145" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F145" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G145" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H145" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I145" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J145" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B146" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F146" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G146" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H146" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I146" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J146" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B147" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F147" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G147" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H147" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I147" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J147" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B148" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F148" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G148" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H148" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I148" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B149" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F149" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G149" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H149" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I149" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J149" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B150" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F150" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G150" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H150" s="12">
+        <v>42547</v>
+      </c>
+      <c r="I150" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B151" s="14">
+        <v>20.75</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" s="12">
+        <v>42545</v>
+      </c>
+      <c r="G151" s="18">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="H151" s="12">
+        <v>42545</v>
+      </c>
+      <c r="I151" s="18">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="J151" s="13" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B152" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="12">
+        <v>42546</v>
+      </c>
+      <c r="G152" s="18">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H152" s="12">
+        <v>42546</v>
+      </c>
+      <c r="I152" s="18">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B153" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="12">
+        <v>42546</v>
+      </c>
+      <c r="G153" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H153" s="12">
+        <v>42546</v>
+      </c>
+      <c r="I153" s="18">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="J153" s="13" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B154" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M78" s="12">
-        <f>$F$2</f>
+      <c r="E154" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="12">
         <v>42545</v>
       </c>
-      <c r="N78" s="13" t="s">
+      <c r="H154" s="12">
+        <v>42545</v>
+      </c>
+      <c r="J154" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="str">
-        <f t="shared" ref="A79" si="10">CONCATENATE("L0",MID(A78,2,5)+1)</f>
-        <v>L07750</v>
-      </c>
-      <c r="B79" s="14">
-        <v>9</v>
-      </c>
-      <c r="C79" s="13" t="s">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B155" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C155" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F79" s="12">
-        <f>$F$2+1</f>
+      <c r="E155" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F155" s="12">
         <v>42546</v>
       </c>
-      <c r="G79" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H79" s="13" t="str">
-        <f t="shared" ref="H79:H80" si="11">CONCATENATE("L0",MID(H78,2,5)+1)</f>
-        <v>L07752</v>
-      </c>
-      <c r="I79" s="14">
+      <c r="H155" s="12">
+        <v>42546</v>
+      </c>
+      <c r="J155" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B156" s="14">
         <v>10.5</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="C156" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M79" s="12">
-        <f>$F$2+1</f>
-        <v>42546</v>
-      </c>
-      <c r="N79" s="13" t="s">
+      <c r="E156" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F156" s="12">
+        <v>42547</v>
+      </c>
+      <c r="H156" s="12">
+        <v>42547</v>
+      </c>
+      <c r="J156" s="13" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="H80" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>L07753</v>
-      </c>
-      <c r="I80" s="14">
-        <v>10.5</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M80" s="12">
-        <f>$F$2+2</f>
-        <v>42547</v>
-      </c>
-      <c r="N80" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="B81" s="5"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81" s="3"/>
-      <c r="G81"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130"/>
-      <c r="B130" s="5"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130" s="3"/>
-      <c r="G130"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="1048575" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 
@@ -38769,7 +40027,7 @@
   <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>

--- a/Data/LCR Biological Data.xlsx
+++ b/Data/LCR Biological Data.xlsx
@@ -6719,10 +6719,10 @@
     <t>At island just upstream of Salt Camp. 5 min kick, 5 min pick with 2 people.</t>
   </si>
   <si>
-    <t>Coyote Camp. Removal time estimated. Took down early because boat was sinking. Lost 3 traps from this boat (not currently sure which ones).</t>
-  </si>
-  <si>
     <t>Boulders Camp. Datasheet left in camp. Need to pull in Sept.</t>
+  </si>
+  <si>
+    <t>Coyote Camp. Took down early because boat was sinking. Lost 3 traps from this boat (not currently sure which ones).</t>
   </si>
 </sst>
 </file>
@@ -33959,7 +33959,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35825,10 +35825,10 @@
         <v>42547</v>
       </c>
       <c r="I66" s="18">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -35851,10 +35851,10 @@
         <v>42547</v>
       </c>
       <c r="I67" s="18">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -35877,10 +35877,10 @@
         <v>42547</v>
       </c>
       <c r="I68" s="18">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -35903,10 +35903,10 @@
         <v>42547</v>
       </c>
       <c r="I69" s="18">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -35929,10 +35929,10 @@
         <v>42547</v>
       </c>
       <c r="I70" s="18">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -35955,10 +35955,10 @@
         <v>42547</v>
       </c>
       <c r="I71" s="18">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -35981,10 +35981,10 @@
         <v>42547</v>
       </c>
       <c r="I72" s="18">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -36007,10 +36007,10 @@
         <v>42547</v>
       </c>
       <c r="I73" s="18">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -36093,7 +36093,7 @@
         <v>42545</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
